--- a/Login.xlsx
+++ b/Login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="odbc" sheetId="1" r:id="rId1"/>
@@ -2307,8 +2307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:H110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7952,8 +7952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
